--- a/artfynd/A 3960-2024 artfynd.xlsx
+++ b/artfynd/A 3960-2024 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130979911</v>
       </c>
       <c r="B2" t="n">
-        <v>80248</v>
+        <v>80252</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>130979906</v>
       </c>
       <c r="B3" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>130979907</v>
       </c>
       <c r="B4" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/artfynd/A 3960-2024 artfynd.xlsx
+++ b/artfynd/A 3960-2024 artfynd.xlsx
@@ -680,45 +680,53 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130979911</v>
+        <v>130979906</v>
       </c>
       <c r="B2" t="n">
-        <v>80252</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>591152</v>
+        <v>591163</v>
       </c>
       <c r="R2" t="n">
-        <v>6963132</v>
+        <v>6963104</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +758,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:38</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +768,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:38</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,53 +800,45 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130979906</v>
+        <v>130979911</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>80252</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>591163</v>
+        <v>591152</v>
       </c>
       <c r="R3" t="n">
-        <v>6963104</v>
+        <v>6963132</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -865,7 +870,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:38</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -875,12 +880,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:38</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
